--- a/Vormessung/Scheinwerfer/Vormessung B-Eye K20.xlsx
+++ b/Vormessung/Scheinwerfer/Vormessung B-Eye K20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heldm\Documents\Bachelor Thesis\BA-RedTail\Vormessung\Scheinwerfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DEFCD7-3BD5-4F19-B20B-DA6C604FEEB3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D60101C-D641-4A1E-AAFD-1C1F86EC8877}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vormessung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
   <si>
     <t>Pretest:</t>
   </si>
@@ -190,18 +190,6 @@
     <t>Einstellungen:</t>
   </si>
   <si>
-    <t>Fresnel-Linse</t>
-  </si>
-  <si>
-    <t>DMX-Mode 2</t>
-  </si>
-  <si>
-    <t>Theater Mode off</t>
-  </si>
-  <si>
-    <t>Output Mode</t>
-  </si>
-  <si>
     <t>Messungen:</t>
   </si>
   <si>
@@ -236,6 +224,18 @@
   </si>
   <si>
     <t>Blood Red</t>
+  </si>
+  <si>
+    <t>Shape Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMX </t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Rot</t>
   </si>
 </sst>
 </file>
@@ -323,7 +323,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,8 +408,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -432,6 +438,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -444,7 +478,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -511,6 +545,43 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -829,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE50"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="H11:I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -853,7 +924,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="H2" s="1">
-        <v>6000</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -909,21 +980,15 @@
       <c r="S3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="U3" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
@@ -946,15 +1011,33 @@
       <c r="F4" s="4">
         <v>50</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="G4" s="14">
+        <v>4290</v>
+      </c>
+      <c r="H4" s="14">
+        <v>9149</v>
+      </c>
+      <c r="I4" s="14">
+        <v>-7.6E-3</v>
+      </c>
+      <c r="J4" s="14">
+        <v>53</v>
+      </c>
+      <c r="K4" s="3">
+        <v>43</v>
+      </c>
+      <c r="L4" s="14">
+        <v>72</v>
+      </c>
+      <c r="M4" s="14">
+        <v>120</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0.29010000000000002</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.28470000000000001</v>
+      </c>
       <c r="P4" s="2">
         <v>0</v>
       </c>
@@ -967,21 +1050,15 @@
       <c r="S4" s="2">
         <v>100</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="39">
         <v>100</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="49">
         <v>100</v>
       </c>
-      <c r="V4" s="2">
-        <v>100</v>
-      </c>
-      <c r="W4" s="2">
-        <v>100</v>
-      </c>
-      <c r="X4" s="2">
-        <v>100</v>
-      </c>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
@@ -1004,24 +1081,50 @@
       <c r="F5" s="4">
         <v>50</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="G5" s="14">
+        <v>2673</v>
+      </c>
+      <c r="H5" s="14">
+        <v>5617</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>82</v>
+      </c>
+      <c r="K5" s="15">
+        <v>90</v>
+      </c>
+      <c r="L5" s="14">
+        <v>87</v>
+      </c>
+      <c r="M5" s="14">
+        <v>109</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.33879999999999999</v>
+      </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
+      <c r="R5" s="16">
+        <v>48.003</v>
+      </c>
+      <c r="S5" s="16">
+        <v>37.1</v>
+      </c>
+      <c r="T5" s="40">
+        <v>0</v>
+      </c>
+      <c r="U5" s="50">
+        <v>100</v>
+      </c>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
@@ -1053,11 +1156,11 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
@@ -1066,6 +1169,16 @@
       <c r="AD6" s="17"/>
       <c r="AE6" s="17"/>
     </row>
+    <row r="7" spans="1:31">
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+    </row>
     <row r="9" spans="1:31">
       <c r="G9" s="18" t="s">
         <v>26</v>
@@ -1106,21 +1219,15 @@
       <c r="S9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="U9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
     </row>
     <row r="10" spans="1:31" ht="14.4">
       <c r="C10" s="31"/>
@@ -1140,11 +1247,11 @@
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
     </row>
     <row r="11" spans="1:31" ht="14.4">
       <c r="C11" s="31" t="s">
@@ -1155,39 +1262,39 @@
       <c r="F11" s="31"/>
       <c r="G11" s="19">
         <f>(G$5-G4)</f>
-        <v>0</v>
+        <v>-1617</v>
       </c>
       <c r="H11" s="19">
         <f t="shared" ref="H11:X11" si="0">(H$5-H4)</f>
-        <v>0</v>
+        <v>-3532</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.6E-3</v>
       </c>
       <c r="J11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="N11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="O11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4099999999999981E-2</v>
       </c>
       <c r="P11" s="19">
         <f t="shared" si="0"/>
@@ -1199,32 +1306,23 @@
       </c>
       <c r="R11" s="19">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-51.997</v>
       </c>
       <c r="S11" s="19">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="T11" s="19">
+        <v>-62.9</v>
+      </c>
+      <c r="T11" s="41">
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="U11" s="19">
+      <c r="U11" s="52">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="V11" s="19">
-        <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="W11" s="19">
-        <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="X11" s="19">
-        <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
     </row>
     <row r="12" spans="1:31">
       <c r="C12" s="31" t="s">
@@ -1235,11 +1333,11 @@
       <c r="F12" s="31"/>
       <c r="G12" s="4">
         <f t="shared" ref="G12:X12" si="1">G6-G5</f>
-        <v>0</v>
+        <v>-2673</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5617</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="1"/>
@@ -1247,27 +1345,27 @@
       </c>
       <c r="J12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-82</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-87</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-109</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.32990000000000003</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.33879999999999999</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="1"/>
@@ -1279,32 +1377,23 @@
       </c>
       <c r="R12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-48.003</v>
       </c>
       <c r="S12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>-37.1</v>
+      </c>
+      <c r="T12" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="53">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
     </row>
     <row r="21" spans="2:10">
       <c r="D21" s="20">
@@ -1370,6 +1459,9 @@
       <c r="B30" t="s">
         <v>40</v>
       </c>
+      <c r="D30">
+        <v>1.2689999999999999</v>
+      </c>
       <c r="E30" t="s">
         <v>41</v>
       </c>
@@ -1438,22 +1530,12 @@
         <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="D48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
@@ -1496,12 +1580,12 @@
   <sheetData>
     <row r="1" spans="1:40" ht="24.6">
       <c r="A1" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="14.4">
@@ -1533,10 +1617,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>9</v>
@@ -1559,28 +1643,22 @@
       <c r="Q4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="S4" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
     </row>
     <row r="5" spans="1:40">
       <c r="B5" s="37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="4">
@@ -1592,50 +1670,57 @@
       <c r="F5" s="4">
         <v>50</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="G5" s="14">
+        <v>2673</v>
+      </c>
+      <c r="H5" s="14">
+        <v>5617</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>82</v>
+      </c>
+      <c r="K5" s="15">
+        <v>90</v>
+      </c>
+      <c r="L5" s="14">
+        <v>87</v>
+      </c>
+      <c r="M5" s="14">
+        <v>109</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.33879999999999999</v>
+      </c>
       <c r="P5" s="16">
         <f>Vormessung!R$5</f>
-        <v>0</v>
+        <v>48.003</v>
       </c>
       <c r="Q5" s="16">
         <f>Vormessung!S$5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="16">
+        <v>37.1</v>
+      </c>
+      <c r="R5" s="40">
         <f>Vormessung!T$5</f>
         <v>0</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="50">
         <f>Vormessung!U$5</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="16">
-        <f>Vormessung!V$5</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="16">
-        <f>Vormessung!W$5</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="16">
-        <f>Vormessung!X$5</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="16">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:40">
       <c r="B6" s="37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="4">
@@ -1647,27 +1732,55 @@
       <c r="F6" s="4">
         <v>50</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
+      <c r="G6" s="14">
+        <v>1009</v>
+      </c>
+      <c r="H6" s="14">
+        <v>5625</v>
+      </c>
+      <c r="I6" s="14">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+      <c r="J6" s="14">
+        <v>81</v>
+      </c>
+      <c r="K6" s="15">
+        <v>85</v>
+      </c>
+      <c r="L6" s="14">
+        <v>85</v>
+      </c>
+      <c r="M6" s="14">
+        <v>110</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="P6" s="14">
+        <v>30.5</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>33.75</v>
+      </c>
+      <c r="R6" s="55">
+        <v>0</v>
+      </c>
+      <c r="S6" s="61">
+        <v>100</v>
+      </c>
+      <c r="T6" s="58">
+        <v>60</v>
+      </c>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
     </row>
     <row r="7" spans="1:40" ht="14.4">
       <c r="B7" s="37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="4">
@@ -1690,40 +1803,29 @@
       <c r="O7" s="14"/>
       <c r="P7" s="16">
         <f t="shared" ref="P7:V8" si="0">P5</f>
-        <v>0</v>
+        <v>48.003</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
+        <v>37.1</v>
+      </c>
+      <c r="R7" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="16">
         <v>100</v>
       </c>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
       <c r="AN7" s="17"/>
     </row>
     <row r="8" spans="1:40">
       <c r="B8" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="4">
@@ -1748,35 +1850,31 @@
       <c r="O8" s="14"/>
       <c r="P8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="16">
+        <v>33.75</v>
+      </c>
+      <c r="R8" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="16">
         <v>100</v>
       </c>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="S9" s="59"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
     </row>
     <row r="10" spans="1:40">
       <c r="G10" s="18" t="s">
@@ -1804,7 +1902,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>16</v>
@@ -1812,122 +1910,102 @@
       <c r="Q10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="S10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W10" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="S10" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
     </row>
     <row r="11" spans="1:40">
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
     </row>
     <row r="12" spans="1:40" ht="14.4">
       <c r="G12" s="19">
         <f t="shared" ref="G12:W12" si="1">(G$6-G5)</f>
-        <v>0</v>
+        <v>-1664</v>
       </c>
       <c r="H12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="J12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.0000000000003348E-4</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.7999999999999692E-3</v>
       </c>
       <c r="P12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-17.503</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>-3.3500000000000014</v>
+      </c>
+      <c r="R12" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
     </row>
     <row r="13" spans="1:40">
       <c r="G13" s="4">
         <f t="shared" ref="G13:W13" si="2">G7-G5</f>
-        <v>0</v>
+        <v>-2673</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-5617</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
@@ -1935,27 +2013,27 @@
       </c>
       <c r="J13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-82</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-87</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-109</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.32990000000000003</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.33879999999999999</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="2"/>
@@ -1965,67 +2043,55 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="4">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
     </row>
     <row r="14" spans="1:40">
       <c r="G14" s="4">
         <f t="shared" ref="G14:W14" si="3">G8-G6</f>
-        <v>500</v>
+        <v>-509</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-5625</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-81</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-85</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-85</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.32969999999999999</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.33600000000000002</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="3"/>
@@ -2035,30 +2101,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="4">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
     </row>
     <row r="16" spans="1:40">
       <c r="C16" s="20">
@@ -2105,8 +2159,7 @@
       <c r="G19" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G11:W11"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -2126,7 +2179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
@@ -2142,12 +2197,12 @@
   <sheetData>
     <row r="1" spans="1:33" ht="24.6">
       <c r="A1" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -2195,10 +2250,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>9</v>
@@ -2237,7 +2292,7 @@
         <v>22</v>
       </c>
       <c r="W4" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="X4" s="27"/>
       <c r="Y4" s="27"/>
@@ -2252,7 +2307,7 @@
     </row>
     <row r="5" spans="1:33" ht="14.4">
       <c r="B5" s="37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="4">
@@ -2275,11 +2330,11 @@
       <c r="O5" s="14"/>
       <c r="P5" s="16">
         <f>Vormessung!R$5</f>
-        <v>0</v>
+        <v>48.003</v>
       </c>
       <c r="Q5" s="16">
         <f>Vormessung!S$5</f>
-        <v>0</v>
+        <v>37.1</v>
       </c>
       <c r="R5" s="16">
         <f>Vormessung!T$5</f>
@@ -2287,7 +2342,7 @@
       </c>
       <c r="S5" s="16">
         <f>Vormessung!U$5</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T5" s="16">
         <f>Vormessung!V$5</f>
@@ -2318,7 +2373,7 @@
     </row>
     <row r="6" spans="1:33" ht="14.4">
       <c r="B6" s="37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="4">
@@ -2330,23 +2385,51 @@
       <c r="F6" s="4">
         <v>50</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="G6" s="14">
+        <v>1019</v>
+      </c>
+      <c r="H6" s="14">
+        <v>5575</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="J6" s="14">
+        <v>81</v>
+      </c>
+      <c r="K6" s="15">
+        <v>87</v>
+      </c>
+      <c r="L6" s="14">
+        <v>86</v>
+      </c>
+      <c r="M6" s="14">
+        <v>110</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.33910000000000001</v>
+      </c>
+      <c r="P6" s="14">
+        <v>45.5</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>37.5</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0</v>
+      </c>
+      <c r="S6" s="14">
+        <v>99</v>
+      </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
+      <c r="W6" s="14">
+        <v>70</v>
+      </c>
       <c r="X6" s="29"/>
       <c r="Y6" s="30"/>
       <c r="Z6" s="30"/>
@@ -2360,7 +2443,7 @@
     </row>
     <row r="7" spans="1:33" ht="14.4">
       <c r="B7" s="37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="4">
@@ -2383,11 +2466,11 @@
       <c r="O7" s="14"/>
       <c r="P7" s="16">
         <f t="shared" ref="P7:V8" si="0">P5</f>
-        <v>0</v>
+        <v>48.003</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.1</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" si="0"/>
@@ -2395,7 +2478,7 @@
       </c>
       <c r="S7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" si="0"/>
@@ -2425,7 +2508,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="B8" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="4">
@@ -2450,11 +2533,11 @@
       <c r="O8" s="14"/>
       <c r="P8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="R8" s="16">
         <f t="shared" si="0"/>
@@ -2462,7 +2545,7 @@
       </c>
       <c r="S8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="T8" s="16">
         <f t="shared" si="0"/>
@@ -2528,7 +2611,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>16</v>
@@ -2552,7 +2635,7 @@
         <v>22</v>
       </c>
       <c r="W10" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
@@ -2597,47 +2680,47 @@
     <row r="12" spans="1:33" ht="14.4">
       <c r="G12" s="19">
         <f t="shared" ref="G12:W12" si="1">(G$6-G5)</f>
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="H12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5575</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="J12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="M12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33079999999999998</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33910000000000001</v>
       </c>
       <c r="P12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.5030000000000001</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="1"/>
@@ -2645,7 +2728,7 @@
       </c>
       <c r="S12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T12" s="19">
         <f t="shared" si="1"/>
@@ -2661,7 +2744,7 @@
       </c>
       <c r="W12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
@@ -2757,39 +2840,39 @@
     <row r="14" spans="1:33">
       <c r="G14" s="4">
         <f t="shared" ref="G14:W14" si="3">G8-G6</f>
-        <v>500</v>
+        <v>-519</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-5575</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1E-4</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-81</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-87</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-86</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.33079999999999998</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.33910000000000001</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="3"/>
@@ -2821,7 +2904,7 @@
       </c>
       <c r="W14" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
@@ -4189,7 +4272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
@@ -4205,12 +4290,12 @@
   <sheetData>
     <row r="1" spans="1:32" ht="24.6">
       <c r="A1" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -4256,10 +4341,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>9</v>
@@ -4285,8 +4370,8 @@
       <c r="R4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>19</v>
+      <c r="S4" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>20</v>
@@ -4298,7 +4383,7 @@
         <v>22</v>
       </c>
       <c r="W4" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="X4" s="27"/>
       <c r="Y4" s="27"/>
@@ -4312,7 +4397,7 @@
     </row>
     <row r="5" spans="1:32" ht="14.4">
       <c r="B5" s="37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="4">
@@ -4335,11 +4420,11 @@
       <c r="O5" s="14"/>
       <c r="P5" s="16">
         <f>Vormessung!R$5</f>
-        <v>0</v>
+        <v>48.003</v>
       </c>
       <c r="Q5" s="16">
         <f>Vormessung!S$5</f>
-        <v>0</v>
+        <v>37.1</v>
       </c>
       <c r="R5" s="16">
         <f>Vormessung!T$5</f>
@@ -4347,7 +4432,7 @@
       </c>
       <c r="S5" s="16">
         <f>Vormessung!U$5</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T5" s="16">
         <f>Vormessung!V$5</f>
@@ -4377,7 +4462,7 @@
     </row>
     <row r="6" spans="1:32" ht="14.4">
       <c r="B6" s="37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="4">
@@ -4389,23 +4474,51 @@
       <c r="F6" s="4">
         <v>50</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="G6" s="14">
+        <v>1038</v>
+      </c>
+      <c r="H6" s="14">
+        <v>5619</v>
+      </c>
+      <c r="I6" s="14">
+        <v>-1E-4</v>
+      </c>
+      <c r="J6" s="14">
+        <v>81</v>
+      </c>
+      <c r="K6" s="15">
+        <v>88</v>
+      </c>
+      <c r="L6" s="14">
+        <v>87</v>
+      </c>
+      <c r="M6" s="14">
+        <v>110</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.33850000000000002</v>
+      </c>
+      <c r="P6" s="14">
+        <v>45.5</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>38</v>
+      </c>
+      <c r="R6" s="14">
+        <v>3</v>
+      </c>
+      <c r="S6" s="14">
+        <v>100</v>
+      </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
+      <c r="W6" s="14">
+        <v>60</v>
+      </c>
       <c r="X6" s="29"/>
       <c r="Y6" s="30"/>
       <c r="Z6" s="30"/>
@@ -4418,7 +4531,7 @@
     </row>
     <row r="7" spans="1:32" ht="14.4">
       <c r="B7" s="37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="4">
@@ -4441,11 +4554,11 @@
       <c r="O7" s="14"/>
       <c r="P7" s="16">
         <f t="shared" ref="P7:V8" si="0">P5</f>
-        <v>0</v>
+        <v>48.003</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.1</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" si="0"/>
@@ -4453,7 +4566,7 @@
       </c>
       <c r="S7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" si="0"/>
@@ -4482,7 +4595,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="B8" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="4">
@@ -4507,19 +4620,19 @@
       <c r="O8" s="14"/>
       <c r="P8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="16">
         <f t="shared" si="0"/>
@@ -4583,7 +4696,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>16</v>
@@ -4607,7 +4720,7 @@
         <v>22</v>
       </c>
       <c r="W10" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
@@ -4650,51 +4763,51 @@
     <row r="12" spans="1:32" ht="14.4">
       <c r="G12" s="19">
         <f t="shared" ref="G12:W12" si="1">(G$6-G5)</f>
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="H12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5619</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1E-4</v>
       </c>
       <c r="J12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="M12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.32979999999999998</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33850000000000002</v>
       </c>
       <c r="P12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.5030000000000001</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12" s="19">
         <f t="shared" si="1"/>
@@ -4714,7 +4827,7 @@
       </c>
       <c r="W12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
@@ -4808,39 +4921,39 @@
     <row r="14" spans="1:32">
       <c r="G14" s="4">
         <f t="shared" ref="G14:W14" si="3">G8-G6</f>
-        <v>500</v>
+        <v>-538</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-5619</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-81</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-88</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-87</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.32979999999999998</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.33850000000000002</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="3"/>
@@ -4872,7 +4985,7 @@
       </c>
       <c r="W14" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
@@ -4926,7 +5039,9 @@
         <v>1</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4">
+        <v>51</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="X17" s="25"/>
@@ -4944,7 +5059,9 @@
         <v>2</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4">
+        <v>51</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="X18" s="25"/>
@@ -4962,7 +5079,9 @@
         <v>3</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4">
+        <v>51</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="X19" s="25"/>
